--- a/data/ARM-Vulnerability-Analysis/Data_AAL_AAE.xlsx
+++ b/data/ARM-Vulnerability-Analysis/Data_AAL_AAE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\armenia-ccdr\data\ARM-Vulnerability-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AA4268-CB2A-4D00-B3E1-2B9B0E15055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F4D15B-E3F8-46F2-AF90-3C33EB395404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <t xml:space="preserve"> pct_AA_exposed_buildings</t>
   </si>
   <si>
-    <t xml:space="preserve"> pct_100_exposed_buildings</t>
+    <t>pct_100_exposed_buildings</t>
   </si>
 </sst>
 </file>
@@ -750,6 +750,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
